--- a/Traduzido/PTBR/Lang/PTBR/Game/Quest.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Quest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE973A40-E688-4C5B-B195-58B1EF8B6ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC1D04F-C470-4209-A962-B6B5226CD894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2857,9 +2857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9:L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,7 +3246,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>148</v>
       </c>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Quest.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Quest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC1D04F-C470-4209-A962-B6B5226CD894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844BEB40-0332-42E8-9C58-DA1FB31A3E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2474,7 +2474,7 @@
     <t>Sim, parece que você acertou. Por que não vai se sentar perto do fogo e beber? Ah, e aqui está algo para você.</t>
   </si>
   <si>
-    <t>completo</t>
+    <t>Completo</t>
   </si>
 </sst>
 </file>
@@ -2858,8 +2858,8 @@
   <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:A1048576"/>
+      <pane ySplit="2" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Quest.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Quest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844BEB40-0332-42E8-9C58-DA1FB31A3E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE88CE5C-EF6E-4D18-BC32-73E870C4BAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7875" yWindow="3060" windowWidth="17790" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -2269,9 +2269,6 @@
     <t>Loytel te deu uma "Escritura de Terreno". Fale com Loytel depois de ter reivindicado os direitos sobre o terreno.</t>
   </si>
   <si>
-    <t>O desenvolvimento de Vernis começou. Cultive a Pedra de Fogo em Vernis e reporte a Loytel. Pergunte a Loytel se tiver dúvidas sobre como cultivar a Pedra de Fogo. Além disso, continue conversando com seus companheiros no quadro de missões.</t>
-  </si>
-  <si>
     <t>Um dragão apareceu no subterrâneo de Vernis. Fale com Loytel quando estiver pronto para enfrentá-lo.</t>
   </si>
   <si>
@@ -2475,6 +2472,9 @@
   </si>
   <si>
     <t>Completo</t>
+  </si>
+  <si>
+    <t>O desenvolvimento de Vernis começou. Cultive a Pedra da Cidade em Vernis e reporte a Loytel. Pergunte a Loytel se tiver dúvidas sobre como cultivar a Pedra da Cidade. Além disso, continue conversando com seus companheiros no quadro de missões.</t>
   </si>
 </sst>
 </file>
@@ -2857,9 +2857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2867,9 +2867,7 @@
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="141.140625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="255.7109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="70.85546875" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="16" customWidth="1" collapsed="1"/>
@@ -3085,7 +3083,7 @@
         <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M9" t="s">
         <v>45</v>
@@ -3120,7 +3118,7 @@
         <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="M10" t="s">
         <v>52</v>
@@ -4135,7 +4133,7 @@
         <v>532</v>
       </c>
       <c r="F63" t="s">
-        <v>674</v>
+        <v>728</v>
       </c>
       <c r="G63" t="s">
         <v>232</v>
@@ -4152,7 +4150,7 @@
         <v>527</v>
       </c>
       <c r="F64" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G64" t="s">
         <v>235</v>
@@ -4169,7 +4167,7 @@
         <v>527</v>
       </c>
       <c r="F65" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G65" t="s">
         <v>238</v>
@@ -4186,7 +4184,7 @@
         <v>527</v>
       </c>
       <c r="F66" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G66" t="s">
         <v>241</v>
@@ -4203,7 +4201,7 @@
         <v>533</v>
       </c>
       <c r="F67" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G67" t="s">
         <v>244</v>
@@ -4257,7 +4255,7 @@
         <v>251</v>
       </c>
       <c r="F70" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G70" t="s">
         <v>252</v>
@@ -4309,7 +4307,7 @@
         <v>261</v>
       </c>
       <c r="F72" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G72" t="s">
         <v>262</v>
@@ -4335,7 +4333,7 @@
         <v>266</v>
       </c>
       <c r="F73" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G73" t="s">
         <v>267</v>
@@ -4361,7 +4359,7 @@
         <v>271</v>
       </c>
       <c r="F74" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G74" t="s">
         <v>272</v>
@@ -4424,7 +4422,7 @@
         <v>283</v>
       </c>
       <c r="F77" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G77" t="s">
         <v>284</v>
@@ -4450,7 +4448,7 @@
         <v>288</v>
       </c>
       <c r="F78" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G78" t="s">
         <v>289</v>
@@ -4502,7 +4500,7 @@
         <v>296</v>
       </c>
       <c r="F80" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G80" t="s">
         <v>297</v>
@@ -4528,7 +4526,7 @@
         <v>301</v>
       </c>
       <c r="F81" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G81" t="s">
         <v>302</v>
@@ -4545,7 +4543,7 @@
         <v>530</v>
       </c>
       <c r="F82" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G82" t="s">
         <v>305</v>
@@ -4571,7 +4569,7 @@
         <v>309</v>
       </c>
       <c r="F83" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G83" t="s">
         <v>310</v>
@@ -4799,7 +4797,7 @@
         <v>338</v>
       </c>
       <c r="F92" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G92" t="s">
         <v>339</v>
@@ -4816,7 +4814,7 @@
         <v>520</v>
       </c>
       <c r="F93" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G93" t="s">
         <v>342</v>
@@ -4842,7 +4840,7 @@
         <v>346</v>
       </c>
       <c r="F94" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G94" t="s">
         <v>347</v>
@@ -4868,7 +4866,7 @@
         <v>351</v>
       </c>
       <c r="F95" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G95" t="s">
         <v>352</v>
@@ -4885,7 +4883,7 @@
         <v>520</v>
       </c>
       <c r="F96" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G96" t="s">
         <v>355</v>
@@ -4911,7 +4909,7 @@
         <v>359</v>
       </c>
       <c r="F97" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G97" t="s">
         <v>360</v>
@@ -4937,7 +4935,7 @@
         <v>364</v>
       </c>
       <c r="F98" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G98" t="s">
         <v>365</v>
@@ -4954,7 +4952,7 @@
         <v>520</v>
       </c>
       <c r="F99" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G99" t="s">
         <v>368</v>
@@ -4980,7 +4978,7 @@
         <v>372</v>
       </c>
       <c r="F100" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G100" t="s">
         <v>373</v>
@@ -5006,7 +5004,7 @@
         <v>377</v>
       </c>
       <c r="F101" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G101" t="s">
         <v>378</v>
@@ -5023,7 +5021,7 @@
         <v>540</v>
       </c>
       <c r="F102" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G102" t="s">
         <v>381</v>
@@ -5049,7 +5047,7 @@
         <v>385</v>
       </c>
       <c r="F103" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G103" t="s">
         <v>386</v>
@@ -5075,7 +5073,7 @@
         <v>390</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G104" t="s">
         <v>391</v>
@@ -5101,7 +5099,7 @@
         <v>395</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G105" t="s">
         <v>396</v>
@@ -5127,7 +5125,7 @@
         <v>400</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G106" t="s">
         <v>401</v>
@@ -5153,7 +5151,7 @@
         <v>405</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G107" t="s">
         <v>406</v>
@@ -5179,7 +5177,7 @@
         <v>410</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G108" t="s">
         <v>411</v>
@@ -5205,7 +5203,7 @@
         <v>415</v>
       </c>
       <c r="F109" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G109" t="s">
         <v>416</v>
@@ -5231,7 +5229,7 @@
         <v>420</v>
       </c>
       <c r="F110" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G110" t="s">
         <v>421</v>
@@ -5257,7 +5255,7 @@
         <v>425</v>
       </c>
       <c r="F111" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G111" t="s">
         <v>426</v>
@@ -5283,7 +5281,7 @@
         <v>430</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G112" t="s">
         <v>431</v>
@@ -5309,7 +5307,7 @@
         <v>435</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G113" t="s">
         <v>436</v>
@@ -5335,7 +5333,7 @@
         <v>440</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G114" t="s">
         <v>441</v>
@@ -5361,7 +5359,7 @@
         <v>445</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G115" t="s">
         <v>446</v>
@@ -5387,7 +5385,7 @@
         <v>450</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G116" t="s">
         <v>451</v>
@@ -5413,7 +5411,7 @@
         <v>455</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G117" t="s">
         <v>456</v>
@@ -5439,7 +5437,7 @@
         <v>460</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G118" t="s">
         <v>461</v>
@@ -5465,7 +5463,7 @@
         <v>465</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G119" t="s">
         <v>466</v>
@@ -5491,7 +5489,7 @@
         <v>470</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G120" t="s">
         <v>471</v>
@@ -5517,7 +5515,7 @@
         <v>475</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G121" t="s">
         <v>476</v>
@@ -5543,7 +5541,7 @@
         <v>475</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G122" t="s">
         <v>476</v>
@@ -5569,7 +5567,7 @@
         <v>482</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G123" t="s">
         <v>483</v>
@@ -5595,7 +5593,7 @@
         <v>487</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G124" t="s">
         <v>488</v>
@@ -5621,7 +5619,7 @@
         <v>492</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G125" t="s">
         <v>493</v>
@@ -5647,7 +5645,7 @@
         <v>497</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G126" t="s">
         <v>498</v>
@@ -5673,7 +5671,7 @@
         <v>502</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G127" t="s">
         <v>503</v>
@@ -5699,7 +5697,7 @@
         <v>507</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G128" t="s">
         <v>508</v>
@@ -5725,7 +5723,7 @@
         <v>512</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G129" t="s">
         <v>513</v>
@@ -5751,7 +5749,7 @@
         <v>517</v>
       </c>
       <c r="F130" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G130" t="s">
         <v>518</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Quest.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE88CE5C-EF6E-4D18-BC32-73E870C4BAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24BEC80-BF53-48BB-869F-5CD62645CBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7875" yWindow="3060" windowWidth="17790" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -2158,21 +2158,10 @@
     <t>Você ainda parece um pouco tonto. Tome um pouco de crim quente para recuperar sua fadiga. Crimberries são ingredientes fáceis de encontrar, usados com frequência em muitas refeições e medicamentos. Recolha 3 crimberries para que eu possa te ensinar a receita. Pergunte a Ash se precisar de orientação.|Então você voltou. Aqui está uma panela de água para você. Os ingredientes para o crim quente são apenas as crimberries e a água. Você também vai precisar de uma fonte de fogo para cozinhá-lo, então vá até o fogo de acampamento quando for preparar. Traga o crim quente para mim quando estiver pronto.</t>
   </si>
   <si>
-    <t>missão de domar</t>
-  </si>
-  <si>
     <t>Caro #player#, você esqueceu de novo?</t>
   </si>
   <si>
     <t>Venha aqui.</t>
-  </si>
-  <si>
-    <t>buraco</t>
-  </si>
-  <si>
-    <t>Você precisa aprender isso para gerenciar sua base. |Clique do meio (ou tecla R) para segurar o container do seu inventário, depois clique com o botão direito no chão para colocá-lo._x000D_
-_x000D_
-Abra o container e clique no ícone de cadeado no lado direito para alterar suas permissões. Quando tudo estiver pronto, retorne a Ashland.</t>
   </si>
   <si>
     <t>Em momentos como este, você pode aproveitar para treinar para o combate. | Vamos matar o punk amarrado e retornar a Ashland.</t>
@@ -2475,6 +2464,16 @@
   </si>
   <si>
     <t>O desenvolvimento de Vernis começou. Cultive a Pedra da Cidade em Vernis e reporte a Loytel. Pergunte a Loytel se tiver dúvidas sobre como cultivar a Pedra da Cidade. Além disso, continue conversando com seus companheiros no quadro de missões.</t>
+  </si>
+  <si>
+    <t>Você precisa aprender isso para gerenciar sua base. |Clique do meio (ou tecla R) para segurar o Caixa do seu inventário, depois clique com o botão direito no chão para colocá-lo.
+Abra a Caixa e clique no ícone de cadeado no lado direito para alterar suas permissões. Quando tudo estiver pronto, retorne a Ashland.</t>
+  </si>
+  <si>
+    <t>Buraco</t>
+  </si>
+  <si>
+    <t>Missão para domar animais.</t>
   </si>
 </sst>
 </file>
@@ -2857,9 +2856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3083,7 +3082,7 @@
         <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="M9" t="s">
         <v>45</v>
@@ -3109,7 +3108,7 @@
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>638</v>
+        <v>728</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -3118,7 +3117,7 @@
         <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="M10" t="s">
         <v>52</v>
@@ -3144,7 +3143,7 @@
         <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G11" t="s">
         <v>57</v>
@@ -3170,7 +3169,7 @@
         <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G12" t="s">
         <v>62</v>
@@ -3196,7 +3195,7 @@
         <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>641</v>
+        <v>727</v>
       </c>
       <c r="G13" t="s">
         <v>67</v>
@@ -3261,7 +3260,7 @@
         <v>78</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>642</v>
+        <v>726</v>
       </c>
       <c r="G17" t="s">
         <v>79</v>
@@ -3295,7 +3294,7 @@
         <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="G19" t="s">
         <v>85</v>
@@ -3312,7 +3311,7 @@
         <v>520</v>
       </c>
       <c r="F20" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G20" t="s">
         <v>88</v>
@@ -3329,7 +3328,7 @@
         <v>520</v>
       </c>
       <c r="F21" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="G21" t="s">
         <v>91</v>
@@ -3363,7 +3362,7 @@
         <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3397,7 +3396,7 @@
         <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G25" t="s">
         <v>62</v>
@@ -3423,7 +3422,7 @@
         <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G26" t="s">
         <v>62</v>
@@ -3449,7 +3448,7 @@
         <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G27" t="s">
         <v>110</v>
@@ -3466,7 +3465,7 @@
         <v>525</v>
       </c>
       <c r="F28" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G28" t="s">
         <v>113</v>
@@ -3500,7 +3499,7 @@
         <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="G30" t="s">
         <v>119</v>
@@ -3517,7 +3516,7 @@
         <v>525</v>
       </c>
       <c r="F31" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G31" t="s">
         <v>122</v>
@@ -3534,7 +3533,7 @@
         <v>525</v>
       </c>
       <c r="F32" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G32" t="s">
         <v>125</v>
@@ -3568,7 +3567,7 @@
         <v>130</v>
       </c>
       <c r="F34" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G34" t="s">
         <v>131</v>
@@ -3585,7 +3584,7 @@
         <v>520</v>
       </c>
       <c r="F35" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G35" t="s">
         <v>134</v>
@@ -3619,7 +3618,7 @@
         <v>139</v>
       </c>
       <c r="F37" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G37" t="s">
         <v>140</v>
@@ -3653,7 +3652,7 @@
         <v>145</v>
       </c>
       <c r="F39" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G39" t="s">
         <v>146</v>
@@ -3670,7 +3669,7 @@
         <v>520</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G40" t="s">
         <v>149</v>
@@ -3687,7 +3686,7 @@
         <v>520</v>
       </c>
       <c r="F41" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G41" t="s">
         <v>152</v>
@@ -3704,7 +3703,7 @@
         <v>520</v>
       </c>
       <c r="F42" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G42" t="s">
         <v>155</v>
@@ -3721,7 +3720,7 @@
         <v>520</v>
       </c>
       <c r="F43" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G43" t="s">
         <v>155</v>
@@ -3738,7 +3737,7 @@
         <v>520</v>
       </c>
       <c r="F44" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="G44" t="s">
         <v>159</v>
@@ -3772,7 +3771,7 @@
         <v>164</v>
       </c>
       <c r="F46" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G46" t="s">
         <v>165</v>
@@ -3798,7 +3797,7 @@
         <v>169</v>
       </c>
       <c r="F47" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="G47" t="s">
         <v>170</v>
@@ -3832,7 +3831,7 @@
         <v>175</v>
       </c>
       <c r="F49" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G49" t="s">
         <v>176</v>
@@ -3866,7 +3865,7 @@
         <v>181</v>
       </c>
       <c r="F51" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="G51" t="s">
         <v>182</v>
@@ -3892,7 +3891,7 @@
         <v>186</v>
       </c>
       <c r="F52" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G52" t="s">
         <v>187</v>
@@ -3918,7 +3917,7 @@
         <v>191</v>
       </c>
       <c r="F53" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G53" t="s">
         <v>192</v>
@@ -3944,7 +3943,7 @@
         <v>196</v>
       </c>
       <c r="F54" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G54" t="s">
         <v>197</v>
@@ -3996,7 +3995,7 @@
         <v>206</v>
       </c>
       <c r="F56" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="G56" t="s">
         <v>207</v>
@@ -4022,7 +4021,7 @@
         <v>211</v>
       </c>
       <c r="F57" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G57" t="s">
         <v>212</v>
@@ -4048,7 +4047,7 @@
         <v>216</v>
       </c>
       <c r="F58" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="G58" t="s">
         <v>217</v>
@@ -4065,7 +4064,7 @@
         <v>527</v>
       </c>
       <c r="F59" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G59" t="s">
         <v>220</v>
@@ -4082,7 +4081,7 @@
         <v>527</v>
       </c>
       <c r="F60" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="G60" t="s">
         <v>223</v>
@@ -4099,7 +4098,7 @@
         <v>531</v>
       </c>
       <c r="F61" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G61" t="s">
         <v>226</v>
@@ -4116,7 +4115,7 @@
         <v>527</v>
       </c>
       <c r="F62" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="G62" t="s">
         <v>229</v>
@@ -4133,7 +4132,7 @@
         <v>532</v>
       </c>
       <c r="F63" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G63" t="s">
         <v>232</v>
@@ -4150,7 +4149,7 @@
         <v>527</v>
       </c>
       <c r="F64" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G64" t="s">
         <v>235</v>
@@ -4167,7 +4166,7 @@
         <v>527</v>
       </c>
       <c r="F65" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G65" t="s">
         <v>238</v>
@@ -4184,7 +4183,7 @@
         <v>527</v>
       </c>
       <c r="F66" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G66" t="s">
         <v>241</v>
@@ -4201,7 +4200,7 @@
         <v>533</v>
       </c>
       <c r="F67" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="G67" t="s">
         <v>244</v>
@@ -4255,7 +4254,7 @@
         <v>251</v>
       </c>
       <c r="F70" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G70" t="s">
         <v>252</v>
@@ -4307,7 +4306,7 @@
         <v>261</v>
       </c>
       <c r="F72" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="G72" t="s">
         <v>262</v>
@@ -4333,7 +4332,7 @@
         <v>266</v>
       </c>
       <c r="F73" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G73" t="s">
         <v>267</v>
@@ -4359,7 +4358,7 @@
         <v>271</v>
       </c>
       <c r="F74" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G74" t="s">
         <v>272</v>
@@ -4422,7 +4421,7 @@
         <v>283</v>
       </c>
       <c r="F77" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G77" t="s">
         <v>284</v>
@@ -4448,7 +4447,7 @@
         <v>288</v>
       </c>
       <c r="F78" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G78" t="s">
         <v>289</v>
@@ -4474,7 +4473,7 @@
         <v>293</v>
       </c>
       <c r="F79" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G79" t="s">
         <v>212</v>
@@ -4500,7 +4499,7 @@
         <v>296</v>
       </c>
       <c r="F80" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G80" t="s">
         <v>297</v>
@@ -4526,7 +4525,7 @@
         <v>301</v>
       </c>
       <c r="F81" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G81" t="s">
         <v>302</v>
@@ -4543,7 +4542,7 @@
         <v>530</v>
       </c>
       <c r="F82" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G82" t="s">
         <v>305</v>
@@ -4569,7 +4568,7 @@
         <v>309</v>
       </c>
       <c r="F83" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="G83" t="s">
         <v>310</v>
@@ -4797,7 +4796,7 @@
         <v>338</v>
       </c>
       <c r="F92" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G92" t="s">
         <v>339</v>
@@ -4814,7 +4813,7 @@
         <v>520</v>
       </c>
       <c r="F93" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="G93" t="s">
         <v>342</v>
@@ -4840,7 +4839,7 @@
         <v>346</v>
       </c>
       <c r="F94" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G94" t="s">
         <v>347</v>
@@ -4866,7 +4865,7 @@
         <v>351</v>
       </c>
       <c r="F95" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G95" t="s">
         <v>352</v>
@@ -4883,7 +4882,7 @@
         <v>520</v>
       </c>
       <c r="F96" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G96" t="s">
         <v>355</v>
@@ -4909,7 +4908,7 @@
         <v>359</v>
       </c>
       <c r="F97" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G97" t="s">
         <v>360</v>
@@ -4935,7 +4934,7 @@
         <v>364</v>
       </c>
       <c r="F98" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G98" t="s">
         <v>365</v>
@@ -4952,7 +4951,7 @@
         <v>520</v>
       </c>
       <c r="F99" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G99" t="s">
         <v>368</v>
@@ -4978,7 +4977,7 @@
         <v>372</v>
       </c>
       <c r="F100" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G100" t="s">
         <v>373</v>
@@ -5004,7 +5003,7 @@
         <v>377</v>
       </c>
       <c r="F101" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G101" t="s">
         <v>378</v>
@@ -5021,7 +5020,7 @@
         <v>540</v>
       </c>
       <c r="F102" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G102" t="s">
         <v>381</v>
@@ -5047,7 +5046,7 @@
         <v>385</v>
       </c>
       <c r="F103" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G103" t="s">
         <v>386</v>
@@ -5073,7 +5072,7 @@
         <v>390</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G104" t="s">
         <v>391</v>
@@ -5099,7 +5098,7 @@
         <v>395</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="G105" t="s">
         <v>396</v>
@@ -5125,7 +5124,7 @@
         <v>400</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G106" t="s">
         <v>401</v>
@@ -5151,7 +5150,7 @@
         <v>405</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G107" t="s">
         <v>406</v>
@@ -5177,7 +5176,7 @@
         <v>410</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G108" t="s">
         <v>411</v>
@@ -5203,7 +5202,7 @@
         <v>415</v>
       </c>
       <c r="F109" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G109" t="s">
         <v>416</v>
@@ -5229,7 +5228,7 @@
         <v>420</v>
       </c>
       <c r="F110" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G110" t="s">
         <v>421</v>
@@ -5255,7 +5254,7 @@
         <v>425</v>
       </c>
       <c r="F111" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="G111" t="s">
         <v>426</v>
@@ -5281,7 +5280,7 @@
         <v>430</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G112" t="s">
         <v>431</v>
@@ -5307,7 +5306,7 @@
         <v>435</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="G113" t="s">
         <v>436</v>
@@ -5333,7 +5332,7 @@
         <v>440</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G114" t="s">
         <v>441</v>
@@ -5359,7 +5358,7 @@
         <v>445</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="G115" t="s">
         <v>446</v>
@@ -5385,7 +5384,7 @@
         <v>450</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="G116" t="s">
         <v>451</v>
@@ -5411,7 +5410,7 @@
         <v>455</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G117" t="s">
         <v>456</v>
@@ -5437,7 +5436,7 @@
         <v>460</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G118" t="s">
         <v>461</v>
@@ -5463,7 +5462,7 @@
         <v>465</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G119" t="s">
         <v>466</v>
@@ -5489,7 +5488,7 @@
         <v>470</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G120" t="s">
         <v>471</v>
@@ -5515,7 +5514,7 @@
         <v>475</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G121" t="s">
         <v>476</v>
@@ -5541,7 +5540,7 @@
         <v>475</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="G122" t="s">
         <v>476</v>
@@ -5567,7 +5566,7 @@
         <v>482</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="G123" t="s">
         <v>483</v>
@@ -5593,7 +5592,7 @@
         <v>487</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G124" t="s">
         <v>488</v>
@@ -5619,7 +5618,7 @@
         <v>492</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="G125" t="s">
         <v>493</v>
@@ -5645,7 +5644,7 @@
         <v>497</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="G126" t="s">
         <v>498</v>
@@ -5671,7 +5670,7 @@
         <v>502</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="G127" t="s">
         <v>503</v>
@@ -5697,7 +5696,7 @@
         <v>507</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G128" t="s">
         <v>508</v>
@@ -5723,7 +5722,7 @@
         <v>512</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G129" t="s">
         <v>513</v>
@@ -5749,7 +5748,7 @@
         <v>517</v>
       </c>
       <c r="F130" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G130" t="s">
         <v>518</v>

--- a/Traduzido/PTBR/Lang/PTBR/Game/Quest.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Game/Quest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24BEC80-BF53-48BB-869F-5CD62645CBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E762AEE7-4778-4B07-9E38-3282DCE17D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23925" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Quest!$A$2:$N$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1842,301 +1855,6 @@
     <t>EA 23.17</t>
   </si>
   <si>
-    <t>Missão Principal</t>
-  </si>
-  <si>
-    <t>Novo Lar</t>
-  </si>
-  <si>
-    <t>Reconstrução de Mysilia</t>
-  </si>
-  <si>
-    <t>Mansão Assombrada</t>
-  </si>
-  <si>
-    <t>Uma receita de crim quente</t>
-  </si>
-  <si>
-    <t>Domando</t>
-  </si>
-  <si>
-    <t>Cerco</t>
-  </si>
-  <si>
-    <t>Símbolo do nosso encontro</t>
-  </si>
-  <si>
-    <t>Cratera Desconhecida</t>
-  </si>
-  <si>
-    <t>Busca por Companheiros</t>
-  </si>
-  <si>
-    <t>Equipamento Essencial</t>
-  </si>
-  <si>
-    <t>Treinamento de Defesa</t>
-  </si>
-  <si>
-    <t>Palestra da Fiama</t>
-  </si>
-  <si>
-    <t>Sentimento da Fiama</t>
-  </si>
-  <si>
-    <t>Visão para o Futuro</t>
-  </si>
-  <si>
-    <t>Cachorrinho Perdido</t>
-  </si>
-  <si>
-    <t>Caminho do Artesão</t>
-  </si>
-  <si>
-    <t>Responsabilidade Tributária</t>
-  </si>
-  <si>
-    <t>Conselho de Tyris</t>
-  </si>
-  <si>
-    <t>Para as Novas Terras</t>
-  </si>
-  <si>
-    <t>Inspetor da Fronteira</t>
-  </si>
-  <si>
-    <t>Primeira Caixa de Envio</t>
-  </si>
-  <si>
-    <t>Espírito Pioneiro</t>
-  </si>
-  <si>
-    <t>Notícias de Mysilia</t>
-  </si>
-  <si>
-    <t>Consideração do Contador de Histórias</t>
-  </si>
-  <si>
-    <t>Alquimista Errante</t>
-  </si>
-  <si>
-    <t>Uma Hora pela Manhã</t>
-  </si>
-  <si>
-    <t>Uma Flor e uma Garota</t>
-  </si>
-  <si>
-    <t>Garota de Olhos Maus</t>
-  </si>
-  <si>
-    <t>Falando do Diabo</t>
-  </si>
-  <si>
-    <t>Ouro Abaixo</t>
-  </si>
-  <si>
-    <t>Aventureiro</t>
-  </si>
-  <si>
-    <t>Aula de Língua Dracônica</t>
-  </si>
-  <si>
-    <t>Além do Desespero</t>
-  </si>
-  <si>
-    <t>Inspetor Desaparecido</t>
-  </si>
-  <si>
-    <t>E Assim Para a Lenda</t>
-  </si>
-  <si>
-    <t>Sussurros do Destino</t>
-  </si>
-  <si>
-    <t>Longa Noite</t>
-  </si>
-  <si>
-    <t>Sombra Sorrateira</t>
-  </si>
-  <si>
-    <t>Tópico Quente</t>
-  </si>
-  <si>
-    <t>Voz na Sombra</t>
-  </si>
-  <si>
-    <t>Para a Escuridão</t>
-  </si>
-  <si>
-    <t>Escritor de Feitiços</t>
-  </si>
-  <si>
-    <t>teste</t>
-  </si>
-  <si>
-    <t>Visitando a Irmãzinha</t>
-  </si>
-  <si>
-    <t>Fantoche</t>
-  </si>
-  <si>
-    <t>Ordem da Guilda(Guerreiro)</t>
-  </si>
-  <si>
-    <t>Ordem da Guilda(Mago)</t>
-  </si>
-  <si>
-    <t>Ordem da Guilda(Ladrão)</t>
-  </si>
-  <si>
-    <t>Ordem da Guilda(Mercador)</t>
-  </si>
-  <si>
-    <t>Ingressando na Guilda dos Guerreiros</t>
-  </si>
-  <si>
-    <t>Guilda dos Guerreiros</t>
-  </si>
-  <si>
-    <t>Ingressando na Guilda dos Magos</t>
-  </si>
-  <si>
-    <t>Guilda dos Magos</t>
-  </si>
-  <si>
-    <t>Ingressando na Guilda dos Ladrões</t>
-  </si>
-  <si>
-    <t>Guilda dos Ladrões</t>
-  </si>
-  <si>
-    <t>Ingressando na Guilda dos Mercadores</t>
-  </si>
-  <si>
-    <t>Guilda dos Mercadores</t>
-  </si>
-  <si>
-    <t>Pequeno recado_x000D_
-A cidade em frenesi_x000D_
-Pedido de entrega_x000D_
-Presente de celebração_x000D_
-Entrega rara_x000D_
-Coletor de lixo_x000D_
-Um passo em direção à ambição_x000D_
-Pedido de retorno_x000D_
-Símbolo de amizade</t>
-  </si>
-  <si>
-    <t>Uma casa dos sonhos_x000D_
-Pedido de aquisição</t>
-  </si>
-  <si>
-    <t>O fim de uma loucura_x000D_
-Minha coleção rara_x000D_
-Um pesadelo absoluto</t>
-  </si>
-  <si>
-    <t>Monstros problemáticos_x000D_
-Patrulha regular_x000D_
-Uma boa ação</t>
-  </si>
-  <si>
-    <t>Raça imunda!</t>
-  </si>
-  <si>
-    <t>Estamos em guerra!</t>
-  </si>
-  <si>
-    <t>Covil de monstros</t>
-  </si>
-  <si>
-    <t>Trabalhador de fazenda procurado_x000D_
-Colha para mim_x000D_
-Temporada de colheita</t>
-  </si>
-  <si>
-    <t>Bebê!_x000D_
-Festa de celebridades_x000D_
-Artista procurado</t>
-  </si>
-  <si>
-    <t>Extermínio de monstros_x000D_
-Caçada a monstros_x000D_
-Casa problemática</t>
-  </si>
-  <si>
-    <t>Carne!_x000D_
-Uma recepção</t>
-  </si>
-  <si>
-    <t>Comida saudável_x000D_
-Peixe para as crianças</t>
-  </si>
-  <si>
-    <t>Fazendo dieta_x000D_
-Superando a seletividade alimentar</t>
-  </si>
-  <si>
-    <t>Sobremesa de frutas_x000D_
-Festa de coquetel!</t>
-  </si>
-  <si>
-    <t>Entusiasta de pães_x000D_
-Vamos fazer um piquenique</t>
-  </si>
-  <si>
-    <t>Mania de macarrão_x000D_
-Eu amo macarrão!</t>
-  </si>
-  <si>
-    <t>Doce doce_x000D_
-Lanchinho para as crianças</t>
-  </si>
-  <si>
-    <t>Ovos encantados_x000D_
-O melhor café da manhã</t>
-  </si>
-  <si>
-    <t>Refeições de aventura!_x000D_
-Até eu estourar</t>
-  </si>
-  <si>
-    <t>Noite de sopa quente!_x000D_
-Prato para recuperação</t>
-  </si>
-  <si>
-    <t>Uma nova receita!_x000D_
-Meu estômago!</t>
-  </si>
-  <si>
-    <t>Escolta solicitada!_x000D_
-Guia turístico_x000D_
-Escolta simples</t>
-  </si>
-  <si>
-    <t>Escolta do mensageiro_x000D_
-Beleza grandiosa demais_x000D_
-Prevenir um assassinato</t>
-  </si>
-  <si>
-    <t>Escolta urgente_x000D_
-Uma vez antes de morrer_x000D_
-Antes que seja tarde demais</t>
-  </si>
-  <si>
-    <t>Auxiliar de Artesanato</t>
-  </si>
-  <si>
-    <t>Minhas coleções de hobby
-Pedido urgente
-Presente para um amado
-Presente para mim mesmo
-Aniversário de criança
-Material de pesquisa
-Pedido do colecionador
-Suprimento</t>
-  </si>
-  <si>
     <t>Você viajou longas distâncias até North Tyris. Você não tem ideia do que espera por você nesta terra desconhecida. Por enquanto, seu objetivo é estabelecer sua vida e persistir.</t>
   </si>
   <si>
@@ -2474,6 +2192,301 @@
   </si>
   <si>
     <t>Missão para domar animais.</t>
+  </si>
+  <si>
+    <t>「Missão Principal」</t>
+  </si>
+  <si>
+    <t>「Novo Lar」</t>
+  </si>
+  <si>
+    <t>「Reconstrução de Mysilia」</t>
+  </si>
+  <si>
+    <t>「Mansão Assombrada」</t>
+  </si>
+  <si>
+    <t>「Uma receita de crim quente」</t>
+  </si>
+  <si>
+    <t>「Domando」</t>
+  </si>
+  <si>
+    <t>「Cerco」</t>
+  </si>
+  <si>
+    <t>「Símbolo do nosso encontro」</t>
+  </si>
+  <si>
+    <t>「Cratera Desconhecida」</t>
+  </si>
+  <si>
+    <t>「Busca por Companheiros」</t>
+  </si>
+  <si>
+    <t>「Equipamento Essencial」</t>
+  </si>
+  <si>
+    <t>「Treinamento de Defesa」</t>
+  </si>
+  <si>
+    <t>「Palestra da Fiama」</t>
+  </si>
+  <si>
+    <t>「Sentimento da Fiama」</t>
+  </si>
+  <si>
+    <t>「Visão para o Futuro」</t>
+  </si>
+  <si>
+    <t>「Cachorrinho Perdido」</t>
+  </si>
+  <si>
+    <t>「Caminho do Artesão」</t>
+  </si>
+  <si>
+    <t>「Responsabilidade Tributária」</t>
+  </si>
+  <si>
+    <t>「Conselho de Tyris」</t>
+  </si>
+  <si>
+    <t>「Para as Novas Terras」</t>
+  </si>
+  <si>
+    <t>「Inspetor da Fronteira」</t>
+  </si>
+  <si>
+    <t>「Primeira Caixa de Envio」</t>
+  </si>
+  <si>
+    <t>「Espírito Pioneiro」</t>
+  </si>
+  <si>
+    <t>「Notícias de Mysilia」</t>
+  </si>
+  <si>
+    <t>「Consideração do Contador de Histórias」</t>
+  </si>
+  <si>
+    <t>「Alquimista Errante」</t>
+  </si>
+  <si>
+    <t>「Uma Hora pela Manhã」</t>
+  </si>
+  <si>
+    <t>「Uma Flor e uma Garota」</t>
+  </si>
+  <si>
+    <t>「Garota de Olhos Maus」</t>
+  </si>
+  <si>
+    <t>「Falando do Diabo」</t>
+  </si>
+  <si>
+    <t>「Ouro Abaixo」</t>
+  </si>
+  <si>
+    <t>「Aventureiro」</t>
+  </si>
+  <si>
+    <t>「Aula de Língua Dracônica」</t>
+  </si>
+  <si>
+    <t>「Além do Desespero」</t>
+  </si>
+  <si>
+    <t>「Inspetor Desaparecido」</t>
+  </si>
+  <si>
+    <t>「E Assim Para a Lenda」</t>
+  </si>
+  <si>
+    <t>「Sussurros do Destino」</t>
+  </si>
+  <si>
+    <t>「Longa Noite」</t>
+  </si>
+  <si>
+    <t>「Sombra Sorrateira」</t>
+  </si>
+  <si>
+    <t>「Tópico Quente」</t>
+  </si>
+  <si>
+    <t>「Voz na Sombra」</t>
+  </si>
+  <si>
+    <t>「Para a Escuridão」</t>
+  </si>
+  <si>
+    <t>「Escritor de Feitiços」</t>
+  </si>
+  <si>
+    <t>「teste」</t>
+  </si>
+  <si>
+    <t>「Visitando a Irmãzinha」</t>
+  </si>
+  <si>
+    <t>「Fantoche」</t>
+  </si>
+  <si>
+    <t>「Ingressando na Guilda dos Guerreiros」</t>
+  </si>
+  <si>
+    <t>「Guilda dos Guerreiros」</t>
+  </si>
+  <si>
+    <t>「Ingressando na Guilda dos Magos」</t>
+  </si>
+  <si>
+    <t>「Guilda dos Magos」</t>
+  </si>
+  <si>
+    <t>「Ingressando na Guilda dos Ladrões」</t>
+  </si>
+  <si>
+    <t>「Guilda dos Ladrões」</t>
+  </si>
+  <si>
+    <t>「Ingressando na Guilda dos Mercadores」</t>
+  </si>
+  <si>
+    <t>「Guilda dos Mercadores」</t>
+  </si>
+  <si>
+    <t>「Raça imunda!」</t>
+  </si>
+  <si>
+    <t>「Estamos em guerra!」</t>
+  </si>
+  <si>
+    <t>「Covil de monstros」</t>
+  </si>
+  <si>
+    <t>「Auxiliar de Artesanato」</t>
+  </si>
+  <si>
+    <t>「Ordem da Guilda (Guerreiro)」</t>
+  </si>
+  <si>
+    <t>「Ordem da Guilda (Mago)」</t>
+  </si>
+  <si>
+    <t>「Ordem da Guilda (Ladrão)」</t>
+  </si>
+  <si>
+    <t>「Ordem da Guilda (Mercador)」</t>
+  </si>
+  <si>
+    <t>「Pequeno recado」
+「A cidade em frenesi」
+「Pedido de entrega」
+「Presente de celebração」
+「Entrega rara」
+「Coletor de lixo」
+「Um passo em direção à ambição」
+「Pedido de retorno」
+「Símbolo de amizade」</t>
+  </si>
+  <si>
+    <t>「Minhas coleções de hobby」
+「Pedido urgente」
+「Presente para um amado」
+「Presente para mim mesmo」
+「Aniversário de criança」
+「Material de pesquisa」
+「Pedido do colecionador」
+「Suprimento」</t>
+  </si>
+  <si>
+    <t>「Uma casa dos sonhos」
+「Pedido de aquisição」</t>
+  </si>
+  <si>
+    <t>「O fim de uma loucura
+「Minha coleção rara」
+「Um pesadelo absoluto」</t>
+  </si>
+  <si>
+    <t>「Monstros problemáticos」
+「Patrulha regular」
+「Uma boa ação」</t>
+  </si>
+  <si>
+    <t>「Trabalhador de fazenda procurado」
+「Colha para mim」
+「Temporada de colheita」</t>
+  </si>
+  <si>
+    <t>「Bebê!」
+「Festa de celebridades」
+「Artista procurado」</t>
+  </si>
+  <si>
+    <t>「Extermínio de monstros」
+「Caçada a monstros」
+「Casa problemática」</t>
+  </si>
+  <si>
+    <t>「Carne!」
+「Uma recepção」</t>
+  </si>
+  <si>
+    <t>「Comida saudável」
+「Peixe para as crianças」</t>
+  </si>
+  <si>
+    <t>「Fazendo dieta」
+「Superando a seletividade alimentar」</t>
+  </si>
+  <si>
+    <t>「Sobremesa de frutas」
+「Festa de coquetel!」</t>
+  </si>
+  <si>
+    <t>「Entusiasta de pães」
+「Vamos fazer um piquenique」</t>
+  </si>
+  <si>
+    <t>「Mania de macarrão」
+「Eu amo macarrão!」</t>
+  </si>
+  <si>
+    <t>「Doce doce」
+「Lanchinho para as crianças」</t>
+  </si>
+  <si>
+    <t>「Ovos encantados」
+「O melhor café da manhã」</t>
+  </si>
+  <si>
+    <t>「Refeições de aventura!」
+「Até eu estourar」</t>
+  </si>
+  <si>
+    <t>「Noite de sopa quente!」
+「Prato para recuperação」</t>
+  </si>
+  <si>
+    <t>「Uma nova receita!」
+「Meu estômago!」</t>
+  </si>
+  <si>
+    <t>「Escolta solicitada!」
+「Guia turístico」
+「Escolta simples」</t>
+  </si>
+  <si>
+    <t>「Escolta do mensageiro」
+「Beleza grandiosa demais
+「Prevenir um assassinato」</t>
+  </si>
+  <si>
+    <t>「Escolta urgente」
+「Uma vez antes de morrer」
+「Antes que seja tarde demais」</t>
   </si>
 </sst>
 </file>
@@ -2856,9 +2869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2926,7 +2939,7 @@
         <v>520</v>
       </c>
       <c r="C3" t="s">
-        <v>547</v>
+        <v>645</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -2935,7 +2948,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>631</v>
+        <v>547</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -2952,7 +2965,7 @@
         <v>521</v>
       </c>
       <c r="C4" t="s">
-        <v>548</v>
+        <v>646</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -2961,7 +2974,7 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>632</v>
+        <v>548</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -2978,7 +2991,7 @@
         <v>520</v>
       </c>
       <c r="F5" t="s">
-        <v>633</v>
+        <v>549</v>
       </c>
       <c r="G5" t="s">
         <v>25</v>
@@ -2995,7 +3008,7 @@
         <v>520</v>
       </c>
       <c r="C6" t="s">
-        <v>549</v>
+        <v>647</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -3004,7 +3017,7 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>634</v>
+        <v>550</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
@@ -3021,7 +3034,7 @@
         <v>522</v>
       </c>
       <c r="C7" t="s">
-        <v>550</v>
+        <v>648</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -3030,7 +3043,7 @@
         <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>635</v>
+        <v>551</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
@@ -3047,7 +3060,7 @@
         <v>523</v>
       </c>
       <c r="F8" t="s">
-        <v>636</v>
+        <v>552</v>
       </c>
       <c r="G8" t="s">
         <v>38</v>
@@ -3064,7 +3077,7 @@
         <v>520</v>
       </c>
       <c r="C9" t="s">
-        <v>551</v>
+        <v>649</v>
       </c>
       <c r="D9" t="s">
         <v>41</v>
@@ -3073,7 +3086,7 @@
         <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>637</v>
+        <v>553</v>
       </c>
       <c r="G9" t="s">
         <v>43</v>
@@ -3082,7 +3095,7 @@
         <v>44</v>
       </c>
       <c r="L9" t="s">
-        <v>723</v>
+        <v>639</v>
       </c>
       <c r="M9" t="s">
         <v>45</v>
@@ -3099,7 +3112,7 @@
         <v>520</v>
       </c>
       <c r="C10" t="s">
-        <v>552</v>
+        <v>650</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
@@ -3108,7 +3121,7 @@
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>728</v>
+        <v>644</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -3117,7 +3130,7 @@
         <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>724</v>
+        <v>640</v>
       </c>
       <c r="M10" t="s">
         <v>52</v>
@@ -3134,7 +3147,7 @@
         <v>520</v>
       </c>
       <c r="C11" t="s">
-        <v>553</v>
+        <v>651</v>
       </c>
       <c r="D11" t="s">
         <v>55</v>
@@ -3143,7 +3156,7 @@
         <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>638</v>
+        <v>554</v>
       </c>
       <c r="G11" t="s">
         <v>57</v>
@@ -3160,7 +3173,7 @@
         <v>520</v>
       </c>
       <c r="C12" t="s">
-        <v>554</v>
+        <v>652</v>
       </c>
       <c r="D12" t="s">
         <v>60</v>
@@ -3169,7 +3182,7 @@
         <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>639</v>
+        <v>555</v>
       </c>
       <c r="G12" t="s">
         <v>62</v>
@@ -3186,7 +3199,7 @@
         <v>520</v>
       </c>
       <c r="C13" t="s">
-        <v>555</v>
+        <v>653</v>
       </c>
       <c r="D13" t="s">
         <v>65</v>
@@ -3195,7 +3208,7 @@
         <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>727</v>
+        <v>643</v>
       </c>
       <c r="G13" t="s">
         <v>67</v>
@@ -3212,7 +3225,7 @@
         <v>520</v>
       </c>
       <c r="C14" t="s">
-        <v>556</v>
+        <v>654</v>
       </c>
       <c r="D14" t="s">
         <v>70</v>
@@ -3251,7 +3264,7 @@
         <v>524</v>
       </c>
       <c r="C17" t="s">
-        <v>557</v>
+        <v>655</v>
       </c>
       <c r="D17" t="s">
         <v>77</v>
@@ -3260,7 +3273,7 @@
         <v>78</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>726</v>
+        <v>642</v>
       </c>
       <c r="G17" t="s">
         <v>79</v>
@@ -3285,7 +3298,7 @@
         <v>520</v>
       </c>
       <c r="C19" t="s">
-        <v>558</v>
+        <v>656</v>
       </c>
       <c r="D19" t="s">
         <v>83</v>
@@ -3294,7 +3307,7 @@
         <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>640</v>
+        <v>556</v>
       </c>
       <c r="G19" t="s">
         <v>85</v>
@@ -3311,7 +3324,7 @@
         <v>520</v>
       </c>
       <c r="F20" t="s">
-        <v>641</v>
+        <v>557</v>
       </c>
       <c r="G20" t="s">
         <v>88</v>
@@ -3328,7 +3341,7 @@
         <v>520</v>
       </c>
       <c r="F21" t="s">
-        <v>642</v>
+        <v>558</v>
       </c>
       <c r="G21" t="s">
         <v>91</v>
@@ -3353,7 +3366,7 @@
         <v>525</v>
       </c>
       <c r="C23" t="s">
-        <v>559</v>
+        <v>657</v>
       </c>
       <c r="D23" t="s">
         <v>95</v>
@@ -3362,7 +3375,7 @@
         <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>643</v>
+        <v>559</v>
       </c>
       <c r="G23" t="s">
         <v>97</v>
@@ -3387,7 +3400,7 @@
         <v>525</v>
       </c>
       <c r="C25" t="s">
-        <v>560</v>
+        <v>658</v>
       </c>
       <c r="D25" t="s">
         <v>101</v>
@@ -3396,7 +3409,7 @@
         <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>639</v>
+        <v>555</v>
       </c>
       <c r="G25" t="s">
         <v>62</v>
@@ -3413,7 +3426,7 @@
         <v>526</v>
       </c>
       <c r="C26" t="s">
-        <v>561</v>
+        <v>659</v>
       </c>
       <c r="D26" t="s">
         <v>105</v>
@@ -3422,7 +3435,7 @@
         <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>639</v>
+        <v>555</v>
       </c>
       <c r="G26" t="s">
         <v>62</v>
@@ -3439,7 +3452,7 @@
         <v>525</v>
       </c>
       <c r="C27" t="s">
-        <v>562</v>
+        <v>660</v>
       </c>
       <c r="D27" t="s">
         <v>108</v>
@@ -3448,7 +3461,7 @@
         <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>644</v>
+        <v>560</v>
       </c>
       <c r="G27" t="s">
         <v>110</v>
@@ -3465,7 +3478,7 @@
         <v>525</v>
       </c>
       <c r="F28" t="s">
-        <v>645</v>
+        <v>561</v>
       </c>
       <c r="G28" t="s">
         <v>113</v>
@@ -3490,7 +3503,7 @@
         <v>527</v>
       </c>
       <c r="C30" t="s">
-        <v>563</v>
+        <v>661</v>
       </c>
       <c r="D30" t="s">
         <v>117</v>
@@ -3499,7 +3512,7 @@
         <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>646</v>
+        <v>562</v>
       </c>
       <c r="G30" t="s">
         <v>119</v>
@@ -3516,7 +3529,7 @@
         <v>525</v>
       </c>
       <c r="F31" t="s">
-        <v>647</v>
+        <v>563</v>
       </c>
       <c r="G31" t="s">
         <v>122</v>
@@ -3533,7 +3546,7 @@
         <v>525</v>
       </c>
       <c r="F32" t="s">
-        <v>648</v>
+        <v>564</v>
       </c>
       <c r="G32" t="s">
         <v>125</v>
@@ -3558,7 +3571,7 @@
         <v>520</v>
       </c>
       <c r="C34" t="s">
-        <v>564</v>
+        <v>662</v>
       </c>
       <c r="D34" t="s">
         <v>129</v>
@@ -3567,7 +3580,7 @@
         <v>130</v>
       </c>
       <c r="F34" t="s">
-        <v>649</v>
+        <v>565</v>
       </c>
       <c r="G34" t="s">
         <v>131</v>
@@ -3584,7 +3597,7 @@
         <v>520</v>
       </c>
       <c r="F35" t="s">
-        <v>650</v>
+        <v>566</v>
       </c>
       <c r="G35" t="s">
         <v>134</v>
@@ -3609,7 +3622,7 @@
         <v>528</v>
       </c>
       <c r="C37" t="s">
-        <v>565</v>
+        <v>663</v>
       </c>
       <c r="D37" t="s">
         <v>138</v>
@@ -3618,7 +3631,7 @@
         <v>139</v>
       </c>
       <c r="F37" t="s">
-        <v>651</v>
+        <v>567</v>
       </c>
       <c r="G37" t="s">
         <v>140</v>
@@ -3643,7 +3656,7 @@
         <v>520</v>
       </c>
       <c r="C39" t="s">
-        <v>566</v>
+        <v>664</v>
       </c>
       <c r="D39" t="s">
         <v>144</v>
@@ -3652,7 +3665,7 @@
         <v>145</v>
       </c>
       <c r="F39" t="s">
-        <v>652</v>
+        <v>568</v>
       </c>
       <c r="G39" t="s">
         <v>146</v>
@@ -3669,7 +3682,7 @@
         <v>520</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>653</v>
+        <v>569</v>
       </c>
       <c r="G40" t="s">
         <v>149</v>
@@ -3686,7 +3699,7 @@
         <v>520</v>
       </c>
       <c r="F41" t="s">
-        <v>654</v>
+        <v>570</v>
       </c>
       <c r="G41" t="s">
         <v>152</v>
@@ -3703,7 +3716,7 @@
         <v>520</v>
       </c>
       <c r="F42" t="s">
-        <v>655</v>
+        <v>571</v>
       </c>
       <c r="G42" t="s">
         <v>155</v>
@@ -3720,7 +3733,7 @@
         <v>520</v>
       </c>
       <c r="F43" t="s">
-        <v>655</v>
+        <v>571</v>
       </c>
       <c r="G43" t="s">
         <v>155</v>
@@ -3737,7 +3750,7 @@
         <v>520</v>
       </c>
       <c r="F44" t="s">
-        <v>656</v>
+        <v>572</v>
       </c>
       <c r="G44" t="s">
         <v>159</v>
@@ -3762,7 +3775,7 @@
         <v>525</v>
       </c>
       <c r="C46" t="s">
-        <v>567</v>
+        <v>665</v>
       </c>
       <c r="D46" t="s">
         <v>163</v>
@@ -3771,7 +3784,7 @@
         <v>164</v>
       </c>
       <c r="F46" t="s">
-        <v>657</v>
+        <v>573</v>
       </c>
       <c r="G46" t="s">
         <v>165</v>
@@ -3788,7 +3801,7 @@
         <v>525</v>
       </c>
       <c r="C47" t="s">
-        <v>568</v>
+        <v>666</v>
       </c>
       <c r="D47" t="s">
         <v>168</v>
@@ -3797,7 +3810,7 @@
         <v>169</v>
       </c>
       <c r="F47" t="s">
-        <v>658</v>
+        <v>574</v>
       </c>
       <c r="G47" t="s">
         <v>170</v>
@@ -3822,7 +3835,7 @@
         <v>529</v>
       </c>
       <c r="C49" t="s">
-        <v>569</v>
+        <v>667</v>
       </c>
       <c r="D49" t="s">
         <v>174</v>
@@ -3831,7 +3844,7 @@
         <v>175</v>
       </c>
       <c r="F49" t="s">
-        <v>659</v>
+        <v>575</v>
       </c>
       <c r="G49" t="s">
         <v>176</v>
@@ -3856,7 +3869,7 @@
         <v>529</v>
       </c>
       <c r="C51" t="s">
-        <v>570</v>
+        <v>668</v>
       </c>
       <c r="D51" t="s">
         <v>180</v>
@@ -3865,7 +3878,7 @@
         <v>181</v>
       </c>
       <c r="F51" t="s">
-        <v>660</v>
+        <v>576</v>
       </c>
       <c r="G51" t="s">
         <v>182</v>
@@ -3882,7 +3895,7 @@
         <v>529</v>
       </c>
       <c r="C52" t="s">
-        <v>571</v>
+        <v>669</v>
       </c>
       <c r="D52" t="s">
         <v>185</v>
@@ -3891,7 +3904,7 @@
         <v>186</v>
       </c>
       <c r="F52" t="s">
-        <v>661</v>
+        <v>577</v>
       </c>
       <c r="G52" t="s">
         <v>187</v>
@@ -3908,7 +3921,7 @@
         <v>529</v>
       </c>
       <c r="C53" t="s">
-        <v>572</v>
+        <v>670</v>
       </c>
       <c r="D53" t="s">
         <v>190</v>
@@ -3917,7 +3930,7 @@
         <v>191</v>
       </c>
       <c r="F53" t="s">
-        <v>662</v>
+        <v>578</v>
       </c>
       <c r="G53" t="s">
         <v>192</v>
@@ -3934,7 +3947,7 @@
         <v>529</v>
       </c>
       <c r="C54" t="s">
-        <v>573</v>
+        <v>671</v>
       </c>
       <c r="D54" t="s">
         <v>195</v>
@@ -3943,7 +3956,7 @@
         <v>196</v>
       </c>
       <c r="F54" t="s">
-        <v>663</v>
+        <v>579</v>
       </c>
       <c r="G54" t="s">
         <v>197</v>
@@ -3960,7 +3973,7 @@
         <v>527</v>
       </c>
       <c r="C55" t="s">
-        <v>574</v>
+        <v>672</v>
       </c>
       <c r="D55" t="s">
         <v>200</v>
@@ -3986,7 +3999,7 @@
         <v>530</v>
       </c>
       <c r="C56" t="s">
-        <v>575</v>
+        <v>673</v>
       </c>
       <c r="D56" t="s">
         <v>205</v>
@@ -3995,7 +4008,7 @@
         <v>206</v>
       </c>
       <c r="F56" t="s">
-        <v>664</v>
+        <v>580</v>
       </c>
       <c r="G56" t="s">
         <v>207</v>
@@ -4012,7 +4025,7 @@
         <v>527</v>
       </c>
       <c r="C57" t="s">
-        <v>576</v>
+        <v>674</v>
       </c>
       <c r="D57" t="s">
         <v>210</v>
@@ -4021,7 +4034,7 @@
         <v>211</v>
       </c>
       <c r="F57" t="s">
-        <v>665</v>
+        <v>581</v>
       </c>
       <c r="G57" t="s">
         <v>212</v>
@@ -4038,7 +4051,7 @@
         <v>527</v>
       </c>
       <c r="C58" t="s">
-        <v>577</v>
+        <v>675</v>
       </c>
       <c r="D58" t="s">
         <v>215</v>
@@ -4047,7 +4060,7 @@
         <v>216</v>
       </c>
       <c r="F58" t="s">
-        <v>666</v>
+        <v>582</v>
       </c>
       <c r="G58" t="s">
         <v>217</v>
@@ -4064,7 +4077,7 @@
         <v>527</v>
       </c>
       <c r="F59" t="s">
-        <v>667</v>
+        <v>583</v>
       </c>
       <c r="G59" t="s">
         <v>220</v>
@@ -4081,7 +4094,7 @@
         <v>527</v>
       </c>
       <c r="F60" t="s">
-        <v>668</v>
+        <v>584</v>
       </c>
       <c r="G60" t="s">
         <v>223</v>
@@ -4098,7 +4111,7 @@
         <v>531</v>
       </c>
       <c r="F61" t="s">
-        <v>669</v>
+        <v>585</v>
       </c>
       <c r="G61" t="s">
         <v>226</v>
@@ -4115,7 +4128,7 @@
         <v>527</v>
       </c>
       <c r="F62" t="s">
-        <v>670</v>
+        <v>586</v>
       </c>
       <c r="G62" t="s">
         <v>229</v>
@@ -4132,7 +4145,7 @@
         <v>532</v>
       </c>
       <c r="F63" t="s">
-        <v>725</v>
+        <v>641</v>
       </c>
       <c r="G63" t="s">
         <v>232</v>
@@ -4149,7 +4162,7 @@
         <v>527</v>
       </c>
       <c r="F64" t="s">
-        <v>671</v>
+        <v>587</v>
       </c>
       <c r="G64" t="s">
         <v>235</v>
@@ -4166,7 +4179,7 @@
         <v>527</v>
       </c>
       <c r="F65" t="s">
-        <v>672</v>
+        <v>588</v>
       </c>
       <c r="G65" t="s">
         <v>238</v>
@@ -4183,7 +4196,7 @@
         <v>527</v>
       </c>
       <c r="F66" t="s">
-        <v>673</v>
+        <v>589</v>
       </c>
       <c r="G66" t="s">
         <v>241</v>
@@ -4200,7 +4213,7 @@
         <v>533</v>
       </c>
       <c r="F67" t="s">
-        <v>674</v>
+        <v>590</v>
       </c>
       <c r="G67" t="s">
         <v>244</v>
@@ -4245,7 +4258,7 @@
         <v>527</v>
       </c>
       <c r="C70" t="s">
-        <v>578</v>
+        <v>676</v>
       </c>
       <c r="D70" t="s">
         <v>250</v>
@@ -4254,7 +4267,7 @@
         <v>251</v>
       </c>
       <c r="F70" t="s">
-        <v>675</v>
+        <v>591</v>
       </c>
       <c r="G70" t="s">
         <v>252</v>
@@ -4271,7 +4284,7 @@
         <v>527</v>
       </c>
       <c r="C71" t="s">
-        <v>579</v>
+        <v>677</v>
       </c>
       <c r="D71" t="s">
         <v>255</v>
@@ -4297,7 +4310,7 @@
         <v>534</v>
       </c>
       <c r="C72" t="s">
-        <v>580</v>
+        <v>678</v>
       </c>
       <c r="D72" t="s">
         <v>260</v>
@@ -4306,7 +4319,7 @@
         <v>261</v>
       </c>
       <c r="F72" t="s">
-        <v>676</v>
+        <v>592</v>
       </c>
       <c r="G72" t="s">
         <v>262</v>
@@ -4323,7 +4336,7 @@
         <v>534</v>
       </c>
       <c r="C73" t="s">
-        <v>581</v>
+        <v>679</v>
       </c>
       <c r="D73" t="s">
         <v>265</v>
@@ -4332,7 +4345,7 @@
         <v>266</v>
       </c>
       <c r="F73" t="s">
-        <v>677</v>
+        <v>593</v>
       </c>
       <c r="G73" t="s">
         <v>267</v>
@@ -4349,7 +4362,7 @@
         <v>535</v>
       </c>
       <c r="C74" t="s">
-        <v>582</v>
+        <v>680</v>
       </c>
       <c r="D74" t="s">
         <v>270</v>
@@ -4358,7 +4371,7 @@
         <v>271</v>
       </c>
       <c r="F74" t="s">
-        <v>678</v>
+        <v>594</v>
       </c>
       <c r="G74" t="s">
         <v>272</v>
@@ -4386,7 +4399,7 @@
         <v>536</v>
       </c>
       <c r="C76" t="s">
-        <v>583</v>
+        <v>681</v>
       </c>
       <c r="D76" t="s">
         <v>277</v>
@@ -4412,7 +4425,7 @@
         <v>536</v>
       </c>
       <c r="C77" t="s">
-        <v>584</v>
+        <v>682</v>
       </c>
       <c r="D77" t="s">
         <v>282</v>
@@ -4421,7 +4434,7 @@
         <v>283</v>
       </c>
       <c r="F77" t="s">
-        <v>679</v>
+        <v>595</v>
       </c>
       <c r="G77" t="s">
         <v>284</v>
@@ -4438,7 +4451,7 @@
         <v>536</v>
       </c>
       <c r="C78" t="s">
-        <v>585</v>
+        <v>683</v>
       </c>
       <c r="D78" t="s">
         <v>287</v>
@@ -4447,7 +4460,7 @@
         <v>288</v>
       </c>
       <c r="F78" t="s">
-        <v>680</v>
+        <v>596</v>
       </c>
       <c r="G78" t="s">
         <v>289</v>
@@ -4464,7 +4477,7 @@
         <v>536</v>
       </c>
       <c r="C79" t="s">
-        <v>586</v>
+        <v>684</v>
       </c>
       <c r="D79" t="s">
         <v>292</v>
@@ -4473,7 +4486,7 @@
         <v>293</v>
       </c>
       <c r="F79" t="s">
-        <v>665</v>
+        <v>581</v>
       </c>
       <c r="G79" t="s">
         <v>212</v>
@@ -4490,7 +4503,7 @@
         <v>536</v>
       </c>
       <c r="C80" t="s">
-        <v>587</v>
+        <v>685</v>
       </c>
       <c r="D80" t="s">
         <v>295</v>
@@ -4499,7 +4512,7 @@
         <v>296</v>
       </c>
       <c r="F80" t="s">
-        <v>681</v>
+        <v>597</v>
       </c>
       <c r="G80" t="s">
         <v>297</v>
@@ -4516,7 +4529,7 @@
         <v>530</v>
       </c>
       <c r="C81" t="s">
-        <v>588</v>
+        <v>686</v>
       </c>
       <c r="D81" t="s">
         <v>300</v>
@@ -4525,7 +4538,7 @@
         <v>301</v>
       </c>
       <c r="F81" t="s">
-        <v>682</v>
+        <v>598</v>
       </c>
       <c r="G81" t="s">
         <v>302</v>
@@ -4542,7 +4555,7 @@
         <v>530</v>
       </c>
       <c r="F82" t="s">
-        <v>683</v>
+        <v>599</v>
       </c>
       <c r="G82" t="s">
         <v>305</v>
@@ -4559,7 +4572,7 @@
         <v>530</v>
       </c>
       <c r="C83" t="s">
-        <v>589</v>
+        <v>687</v>
       </c>
       <c r="D83" t="s">
         <v>308</v>
@@ -4568,7 +4581,7 @@
         <v>309</v>
       </c>
       <c r="F83" t="s">
-        <v>684</v>
+        <v>600</v>
       </c>
       <c r="G83" t="s">
         <v>310</v>
@@ -4585,7 +4598,7 @@
         <v>527</v>
       </c>
       <c r="C84" t="s">
-        <v>590</v>
+        <v>688</v>
       </c>
       <c r="D84" t="s">
         <v>313</v>
@@ -4611,7 +4624,7 @@
         <v>527</v>
       </c>
       <c r="C85" t="s">
-        <v>590</v>
+        <v>688</v>
       </c>
       <c r="D85" t="s">
         <v>313</v>
@@ -4637,7 +4650,7 @@
         <v>527</v>
       </c>
       <c r="C86" t="s">
-        <v>591</v>
+        <v>689</v>
       </c>
       <c r="D86" t="s">
         <v>317</v>
@@ -4657,7 +4670,7 @@
         <v>537</v>
       </c>
       <c r="C87" t="s">
-        <v>592</v>
+        <v>690</v>
       </c>
       <c r="D87" t="s">
         <v>321</v>
@@ -4683,7 +4696,7 @@
         <v>538</v>
       </c>
       <c r="C88" t="s">
-        <v>593</v>
+        <v>703</v>
       </c>
       <c r="D88" t="s">
         <v>324</v>
@@ -4709,7 +4722,7 @@
         <v>538</v>
       </c>
       <c r="C89" t="s">
-        <v>594</v>
+        <v>704</v>
       </c>
       <c r="D89" t="s">
         <v>328</v>
@@ -4735,7 +4748,7 @@
         <v>538</v>
       </c>
       <c r="C90" t="s">
-        <v>595</v>
+        <v>705</v>
       </c>
       <c r="D90" t="s">
         <v>331</v>
@@ -4761,7 +4774,7 @@
         <v>538</v>
       </c>
       <c r="C91" t="s">
-        <v>596</v>
+        <v>706</v>
       </c>
       <c r="D91" t="s">
         <v>334</v>
@@ -4787,7 +4800,7 @@
         <v>520</v>
       </c>
       <c r="C92" t="s">
-        <v>597</v>
+        <v>691</v>
       </c>
       <c r="D92" t="s">
         <v>337</v>
@@ -4796,7 +4809,7 @@
         <v>338</v>
       </c>
       <c r="F92" t="s">
-        <v>685</v>
+        <v>601</v>
       </c>
       <c r="G92" t="s">
         <v>339</v>
@@ -4813,7 +4826,7 @@
         <v>520</v>
       </c>
       <c r="F93" t="s">
-        <v>686</v>
+        <v>602</v>
       </c>
       <c r="G93" t="s">
         <v>342</v>
@@ -4830,7 +4843,7 @@
         <v>527</v>
       </c>
       <c r="C94" t="s">
-        <v>598</v>
+        <v>692</v>
       </c>
       <c r="D94" t="s">
         <v>345</v>
@@ -4839,7 +4852,7 @@
         <v>346</v>
       </c>
       <c r="F94" t="s">
-        <v>687</v>
+        <v>603</v>
       </c>
       <c r="G94" t="s">
         <v>347</v>
@@ -4856,7 +4869,7 @@
         <v>520</v>
       </c>
       <c r="C95" t="s">
-        <v>599</v>
+        <v>693</v>
       </c>
       <c r="D95" t="s">
         <v>350</v>
@@ -4865,7 +4878,7 @@
         <v>351</v>
       </c>
       <c r="F95" t="s">
-        <v>688</v>
+        <v>604</v>
       </c>
       <c r="G95" t="s">
         <v>352</v>
@@ -4882,7 +4895,7 @@
         <v>520</v>
       </c>
       <c r="F96" t="s">
-        <v>689</v>
+        <v>605</v>
       </c>
       <c r="G96" t="s">
         <v>355</v>
@@ -4899,7 +4912,7 @@
         <v>527</v>
       </c>
       <c r="C97" t="s">
-        <v>600</v>
+        <v>694</v>
       </c>
       <c r="D97" t="s">
         <v>358</v>
@@ -4908,7 +4921,7 @@
         <v>359</v>
       </c>
       <c r="F97" t="s">
-        <v>690</v>
+        <v>606</v>
       </c>
       <c r="G97" t="s">
         <v>360</v>
@@ -4925,7 +4938,7 @@
         <v>520</v>
       </c>
       <c r="C98" t="s">
-        <v>601</v>
+        <v>695</v>
       </c>
       <c r="D98" t="s">
         <v>363</v>
@@ -4934,7 +4947,7 @@
         <v>364</v>
       </c>
       <c r="F98" t="s">
-        <v>691</v>
+        <v>607</v>
       </c>
       <c r="G98" t="s">
         <v>365</v>
@@ -4951,7 +4964,7 @@
         <v>520</v>
       </c>
       <c r="F99" t="s">
-        <v>692</v>
+        <v>608</v>
       </c>
       <c r="G99" t="s">
         <v>368</v>
@@ -4968,7 +4981,7 @@
         <v>527</v>
       </c>
       <c r="C100" t="s">
-        <v>602</v>
+        <v>696</v>
       </c>
       <c r="D100" t="s">
         <v>371</v>
@@ -4977,7 +4990,7 @@
         <v>372</v>
       </c>
       <c r="F100" t="s">
-        <v>693</v>
+        <v>609</v>
       </c>
       <c r="G100" t="s">
         <v>373</v>
@@ -4994,7 +5007,7 @@
         <v>539</v>
       </c>
       <c r="C101" t="s">
-        <v>603</v>
+        <v>697</v>
       </c>
       <c r="D101" t="s">
         <v>376</v>
@@ -5003,7 +5016,7 @@
         <v>377</v>
       </c>
       <c r="F101" t="s">
-        <v>694</v>
+        <v>610</v>
       </c>
       <c r="G101" t="s">
         <v>378</v>
@@ -5020,7 +5033,7 @@
         <v>540</v>
       </c>
       <c r="F102" t="s">
-        <v>695</v>
+        <v>611</v>
       </c>
       <c r="G102" t="s">
         <v>381</v>
@@ -5037,7 +5050,7 @@
         <v>527</v>
       </c>
       <c r="C103" t="s">
-        <v>604</v>
+        <v>698</v>
       </c>
       <c r="D103" t="s">
         <v>384</v>
@@ -5046,7 +5059,7 @@
         <v>385</v>
       </c>
       <c r="F103" t="s">
-        <v>696</v>
+        <v>612</v>
       </c>
       <c r="G103" t="s">
         <v>386</v>
@@ -5063,7 +5076,7 @@
         <v>527</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>605</v>
+        <v>707</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>389</v>
@@ -5072,7 +5085,7 @@
         <v>390</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>697</v>
+        <v>613</v>
       </c>
       <c r="G104" t="s">
         <v>391</v>
@@ -5089,7 +5102,7 @@
         <v>541</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>630</v>
+        <v>708</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>394</v>
@@ -5098,7 +5111,7 @@
         <v>395</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>698</v>
+        <v>614</v>
       </c>
       <c r="G105" t="s">
         <v>396</v>
@@ -5115,7 +5128,7 @@
         <v>527</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>606</v>
+        <v>709</v>
       </c>
       <c r="D106" t="s">
         <v>399</v>
@@ -5124,7 +5137,7 @@
         <v>400</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>699</v>
+        <v>615</v>
       </c>
       <c r="G106" t="s">
         <v>401</v>
@@ -5141,7 +5154,7 @@
         <v>527</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>607</v>
+        <v>710</v>
       </c>
       <c r="D107" t="s">
         <v>404</v>
@@ -5150,7 +5163,7 @@
         <v>405</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>700</v>
+        <v>616</v>
       </c>
       <c r="G107" t="s">
         <v>406</v>
@@ -5167,7 +5180,7 @@
         <v>542</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>608</v>
+        <v>711</v>
       </c>
       <c r="D108" t="s">
         <v>409</v>
@@ -5176,7 +5189,7 @@
         <v>410</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>701</v>
+        <v>617</v>
       </c>
       <c r="G108" t="s">
         <v>411</v>
@@ -5193,7 +5206,7 @@
         <v>543</v>
       </c>
       <c r="C109" t="s">
-        <v>609</v>
+        <v>699</v>
       </c>
       <c r="D109" t="s">
         <v>414</v>
@@ -5202,7 +5215,7 @@
         <v>415</v>
       </c>
       <c r="F109" t="s">
-        <v>702</v>
+        <v>618</v>
       </c>
       <c r="G109" t="s">
         <v>416</v>
@@ -5219,7 +5232,7 @@
         <v>527</v>
       </c>
       <c r="C110" t="s">
-        <v>610</v>
+        <v>700</v>
       </c>
       <c r="D110" t="s">
         <v>419</v>
@@ -5228,7 +5241,7 @@
         <v>420</v>
       </c>
       <c r="F110" t="s">
-        <v>703</v>
+        <v>619</v>
       </c>
       <c r="G110" t="s">
         <v>421</v>
@@ -5245,7 +5258,7 @@
         <v>527</v>
       </c>
       <c r="C111" t="s">
-        <v>611</v>
+        <v>701</v>
       </c>
       <c r="D111" t="s">
         <v>424</v>
@@ -5254,7 +5267,7 @@
         <v>425</v>
       </c>
       <c r="F111" t="s">
-        <v>704</v>
+        <v>620</v>
       </c>
       <c r="G111" t="s">
         <v>426</v>
@@ -5271,7 +5284,7 @@
         <v>527</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>612</v>
+        <v>712</v>
       </c>
       <c r="D112" t="s">
         <v>429</v>
@@ -5280,7 +5293,7 @@
         <v>430</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>705</v>
+        <v>621</v>
       </c>
       <c r="G112" t="s">
         <v>431</v>
@@ -5297,7 +5310,7 @@
         <v>527</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>613</v>
+        <v>713</v>
       </c>
       <c r="D113" t="s">
         <v>434</v>
@@ -5306,7 +5319,7 @@
         <v>435</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>706</v>
+        <v>622</v>
       </c>
       <c r="G113" t="s">
         <v>436</v>
@@ -5323,7 +5336,7 @@
         <v>530</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>614</v>
+        <v>714</v>
       </c>
       <c r="D114" t="s">
         <v>439</v>
@@ -5332,7 +5345,7 @@
         <v>440</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>707</v>
+        <v>623</v>
       </c>
       <c r="G114" t="s">
         <v>441</v>
@@ -5349,7 +5362,7 @@
         <v>527</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>615</v>
+        <v>715</v>
       </c>
       <c r="D115" t="s">
         <v>444</v>
@@ -5358,7 +5371,7 @@
         <v>445</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>708</v>
+        <v>624</v>
       </c>
       <c r="G115" t="s">
         <v>446</v>
@@ -5375,7 +5388,7 @@
         <v>527</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>616</v>
+        <v>716</v>
       </c>
       <c r="D116" t="s">
         <v>449</v>
@@ -5384,7 +5397,7 @@
         <v>450</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>709</v>
+        <v>625</v>
       </c>
       <c r="G116" t="s">
         <v>451</v>
@@ -5401,7 +5414,7 @@
         <v>527</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>617</v>
+        <v>717</v>
       </c>
       <c r="D117" t="s">
         <v>454</v>
@@ -5410,7 +5423,7 @@
         <v>455</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>710</v>
+        <v>626</v>
       </c>
       <c r="G117" t="s">
         <v>456</v>
@@ -5427,7 +5440,7 @@
         <v>527</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>618</v>
+        <v>718</v>
       </c>
       <c r="D118" t="s">
         <v>459</v>
@@ -5436,7 +5449,7 @@
         <v>460</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>711</v>
+        <v>627</v>
       </c>
       <c r="G118" t="s">
         <v>461</v>
@@ -5453,7 +5466,7 @@
         <v>527</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>619</v>
+        <v>719</v>
       </c>
       <c r="D119" t="s">
         <v>464</v>
@@ -5462,7 +5475,7 @@
         <v>465</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>712</v>
+        <v>628</v>
       </c>
       <c r="G119" t="s">
         <v>466</v>
@@ -5479,7 +5492,7 @@
         <v>527</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>620</v>
+        <v>720</v>
       </c>
       <c r="D120" t="s">
         <v>469</v>
@@ -5488,7 +5501,7 @@
         <v>470</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>713</v>
+        <v>629</v>
       </c>
       <c r="G120" t="s">
         <v>471</v>
@@ -5505,7 +5518,7 @@
         <v>527</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>621</v>
+        <v>721</v>
       </c>
       <c r="D121" t="s">
         <v>474</v>
@@ -5514,7 +5527,7 @@
         <v>475</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>714</v>
+        <v>630</v>
       </c>
       <c r="G121" t="s">
         <v>476</v>
@@ -5531,7 +5544,7 @@
         <v>527</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>621</v>
+        <v>721</v>
       </c>
       <c r="D122" t="s">
         <v>474</v>
@@ -5540,7 +5553,7 @@
         <v>475</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>714</v>
+        <v>630</v>
       </c>
       <c r="G122" t="s">
         <v>476</v>
@@ -5557,7 +5570,7 @@
         <v>527</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>622</v>
+        <v>722</v>
       </c>
       <c r="D123" t="s">
         <v>481</v>
@@ -5566,7 +5579,7 @@
         <v>482</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>715</v>
+        <v>631</v>
       </c>
       <c r="G123" t="s">
         <v>483</v>
@@ -5583,7 +5596,7 @@
         <v>527</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>623</v>
+        <v>723</v>
       </c>
       <c r="D124" t="s">
         <v>486</v>
@@ -5592,7 +5605,7 @@
         <v>487</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>716</v>
+        <v>632</v>
       </c>
       <c r="G124" t="s">
         <v>488</v>
@@ -5609,7 +5622,7 @@
         <v>527</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>624</v>
+        <v>724</v>
       </c>
       <c r="D125" t="s">
         <v>491</v>
@@ -5618,7 +5631,7 @@
         <v>492</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>717</v>
+        <v>633</v>
       </c>
       <c r="G125" t="s">
         <v>493</v>
@@ -5635,7 +5648,7 @@
         <v>527</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>625</v>
+        <v>725</v>
       </c>
       <c r="D126" t="s">
         <v>496</v>
@@ -5644,7 +5657,7 @@
         <v>497</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>718</v>
+        <v>634</v>
       </c>
       <c r="G126" t="s">
         <v>498</v>
@@ -5661,7 +5674,7 @@
         <v>527</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>626</v>
+        <v>726</v>
       </c>
       <c r="D127" t="s">
         <v>501</v>
@@ -5670,7 +5683,7 @@
         <v>502</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>719</v>
+        <v>635</v>
       </c>
       <c r="G127" t="s">
         <v>503</v>
@@ -5687,7 +5700,7 @@
         <v>544</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>627</v>
+        <v>727</v>
       </c>
       <c r="D128" t="s">
         <v>506</v>
@@ -5696,7 +5709,7 @@
         <v>507</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>720</v>
+        <v>636</v>
       </c>
       <c r="G128" t="s">
         <v>508</v>
@@ -5713,7 +5726,7 @@
         <v>545</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>628</v>
+        <v>728</v>
       </c>
       <c r="D129" t="s">
         <v>511</v>
@@ -5722,7 +5735,7 @@
         <v>512</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>721</v>
+        <v>637</v>
       </c>
       <c r="G129" t="s">
         <v>513</v>
@@ -5739,7 +5752,7 @@
         <v>546</v>
       </c>
       <c r="C130" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="D130" t="s">
         <v>516</v>
@@ -5748,7 +5761,7 @@
         <v>517</v>
       </c>
       <c r="F130" t="s">
-        <v>722</v>
+        <v>638</v>
       </c>
       <c r="G130" t="s">
         <v>518</v>
